--- a/Opdracht 2/Requirements unformatted.xlsx
+++ b/Opdracht 2/Requirements unformatted.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSS\Documents\GitHub\Empty-Backpack\Opdracht 2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="198"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Admin" sheetId="2" r:id="rId2"/>
     <sheet name="Spel" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -59,9 +54,6 @@
     <t>gewenst</t>
   </si>
   <si>
-    <t>Er moeten verschillende spelmodi zijn</t>
-  </si>
-  <si>
     <t>Het systeem moet een spelgeschiedenis hebben</t>
   </si>
   <si>
@@ -165,16 +157,24 @@
   </si>
   <si>
     <t>Gelegde woorden moeten worden goedgekeurd door database</t>
+  </si>
+  <si>
+    <t>Er moeten verschillende spelmodes zijn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -198,9 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,7 +300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,29 +477,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="48.140625"/>
-    <col min="3" max="3" width="45.42578125"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -517,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -528,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -539,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -550,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -561,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -572,80 +577,129 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -654,21 +708,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.5703125"/>
     <col min="2" max="2" width="45.7109375"/>
     <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,125 +733,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -810,21 +864,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.5703125"/>
     <col min="2" max="2" width="45.85546875"/>
     <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -835,180 +889,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
